--- a/biology/Médecine/Classification_de_Fitzpatrick/Classification_de_Fitzpatrick.xlsx
+++ b/biology/Médecine/Classification_de_Fitzpatrick/Classification_de_Fitzpatrick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification de Fitzpatrick ou phototype permet de classer les individus selon la réaction de leur peau lors d'une exposition solaire.
 Elle a été créée en 1975 par Thomas B. Fitzpatrick (en), un dermatologiste de Harvard.
@@ -512,7 +524,9 @@
           <t>Valeurs de référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">phototype I
 réaction au soleil : ne bronze pas, rougit plutôt et attrape systématiquement des coups de soleil.
@@ -537,9 +551,9 @@
 On parle de phototypes assez mélano-protégés.
 Les peaux claires ont besoin d'une protection plus élevée (SPF 50) contre les UV que les peaux mates. Elles sont plus sensibles au soleil car la mélanine jaune dite phéomélanine est moins réactive au Soleil et elles ont ainsi plus de risques de développer un cancer de la peau.
 Les peaux foncées possèdent une plus grande quantité de mélanine brune dite eumélanine, qui filtre naturellement les UV. Néanmoins 
-la protection n'est pas parfaite et  elles ont aussi besoin de protection UV (SPF 30). En outre, des personnes de phototypes V ou VI peuvent développer parfois davantage d'autres types de mélanome, non directement liés aux UV[1].
+la protection n'est pas parfaite et  elles ont aussi besoin de protection UV (SPF 30). En outre, des personnes de phototypes V ou VI peuvent développer parfois davantage d'autres types de mélanome, non directement liés aux UV.
 Connaître son phototype permet de choisir une crème solaire adaptée.
-Enfin, une catégorie correspondant à un phototype 0 est réservée au sein de l'échelle aux personnes albinos. La peau est franchement blanche, les cheveux sont blanc jaune pâle, les yeux caractéristiques. Ne synthétisant pas la mélanine, les phototypes 0 ne peuvent pas s'exposer au soleil[2].
+Enfin, une catégorie correspondant à un phototype 0 est réservée au sein de l'échelle aux personnes albinos. La peau est franchement blanche, les cheveux sont blanc jaune pâle, les yeux caractéristiques. Ne synthétisant pas la mélanine, les phototypes 0 ne peuvent pas s'exposer au soleil.
 </t>
         </is>
       </c>
